--- a/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\预备党员管理系统\杨鹏飞\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E14258F-241F-4286-9646-558B0EE9086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A8223-F3D9-4805-A29F-E822CC9F3780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,18 +28,12 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>培训班次</t>
-  </si>
-  <si>
     <t>组织单位</t>
   </si>
   <si>
     <t>培训单位</t>
   </si>
   <si>
-    <t>地点</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -47,9 +41,6 @@
   </si>
   <si>
     <t>培训时间</t>
-  </si>
-  <si>
-    <t>时长</t>
   </si>
   <si>
     <t>王海</t>
@@ -61,6 +52,18 @@
   </si>
   <si>
     <t>测试地点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训班名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训地点</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -81,23 +84,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="方正小标宋简体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋_GB2312"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,19 +167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -189,25 +183,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -217,7 +205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +527,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -549,69 +537,69 @@
     <col min="4" max="4" width="12.3984375" customWidth="1"/>
     <col min="5" max="5" width="14.46484375" customWidth="1"/>
     <col min="6" max="6" width="19.73046875" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
-    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="7" max="8" width="15.73046875" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
         <v>2020</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>43891</v>
       </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4"/>
+      <c r="H2" s="10">
+        <v>43892</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A8223-F3D9-4805-A29F-E822CC9F3780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE6AEA-8E67-4F10-8BDF-328F00F6BFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>培训地点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训学时</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -71,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +225,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -524,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -537,11 +550,11 @@
     <col min="4" max="4" width="12.3984375" customWidth="1"/>
     <col min="5" max="5" width="14.46484375" customWidth="1"/>
     <col min="6" max="6" width="19.73046875" customWidth="1"/>
-    <col min="7" max="8" width="15.73046875" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="7" max="9" width="15.73046875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -566,14 +579,17 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -596,10 +612,13 @@
       <c r="H2" s="10">
         <v>43892</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE6AEA-8E67-4F10-8BDF-328F00F6BFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13425"/>
   </bookViews>
   <sheets>
     <sheet name="2017年" sheetId="2" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -68,17 +62,24 @@
   </si>
   <si>
     <t>培训学时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级</t>
+  </si>
+  <si>
+    <t>正处级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,7 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -536,25 +537,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.46484375" customWidth="1"/>
-    <col min="6" max="6" width="19.73046875" customWidth="1"/>
-    <col min="7" max="9" width="15.73046875" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -562,63 +563,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>2020</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>43891</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>43892</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="13">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/领导干部参训导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>正处级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -538,24 +546,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -563,69 +571,75 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25">
+    <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>2020</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>43891</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>43892</v>
       </c>
-      <c r="J2" s="13">
+      <c r="K2" s="13">
         <v>8</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
